--- a/metadata/STR-NHANES-2009-2010.xlsx
+++ b/metadata/STR-NHANES-2009-2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50993B-3AB5-D441-A1DD-E4FF62E38A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E8FB3-266E-3F45-92F4-EED2A76CFB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>NHANES-DEMO</t>
   </si>
   <si>
-    <t>NHANES-2013-2014</t>
-  </si>
-  <si>
     <t>NHANES-HIQ</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>NHANES-2009-2010-HIQ_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1502,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="8" t="s">
@@ -1557,13 +1557,13 @@
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">

--- a/metadata/STR-NHANES-2009-2010.xlsx
+++ b/metadata/STR-NHANES-2009-2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E8FB3-266E-3F45-92F4-EED2A76CFB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7981A9-685E-2846-8187-DC5D1A055A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -130,6 +130,45 @@
   </si>
   <si>
     <t>NHANES-2009-2010</t>
+  </si>
+  <si>
+    <t>NHANES-DIQ</t>
+  </si>
+  <si>
+    <t>NHANES-RXQ_RX-T</t>
+  </si>
+  <si>
+    <t>NHANES-LAB-RESULTS</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BECKMAN-COULTER-UNICEL-DXC-800-SYNCHRON</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DIQ_F-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DSQ_F-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-DIQ_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-TCHOL_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-GLU_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-GHB_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-RXQ_RX_F</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-ROCHE-MODULAR-P-CHEMISTRY-ANALYZER</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-TOSOH-G7-AUTOMATED-HPLC-ANALYZER</t>
   </si>
 </sst>
 </file>
@@ -204,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -218,6 +257,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1381,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1500,17 +1542,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1538,45 +1580,140 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
+      <c r="A2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D2" s="12"/>
       <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F6AA2C18-05A3-1640-BB8B-666F16DDB7C4}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{4CBF1F59-E6CF-9C4E-ADAE-AD0B7423F61E}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{BF77E96A-B180-544F-B6CA-EC7D35AAA94E}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{6C1BE012-E1CA-3E4C-90FE-B5266FB935A7}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{370FD019-0A04-0541-9F59-68E6B453D765}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{8FA29C4B-5D62-C241-B5A9-3548E5889E53}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{2764579B-87E0-6E49-8E4D-86FCABC15967}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{F94762BC-A13D-FF42-A2B5-42F93E20FADB}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2009-2010.xlsx
+++ b/metadata/STR-NHANES-2009-2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7981A9-685E-2846-8187-DC5D1A055A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B284698-2588-8147-B77F-0062F7E11893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1120" yWindow="-19300" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-TOSOH-G7-AUTOMATED-HPLC-ANALYZER</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BECKMAN-COULTER-ICON-25-HCG-URINE-SERUM-TEST-KIT</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-UCPREG_F</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -260,6 +266,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1542,17 +1549,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1705,6 +1712,24 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{4CBF1F59-E6CF-9C4E-ADAE-AD0B7423F61E}"/>
@@ -1714,6 +1739,7 @@
     <hyperlink ref="E7" r:id="rId5" xr:uid="{8FA29C4B-5D62-C241-B5A9-3548E5889E53}"/>
     <hyperlink ref="E2" r:id="rId6" xr:uid="{2764579B-87E0-6E49-8E4D-86FCABC15967}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{F94762BC-A13D-FF42-A2B5-42F93E20FADB}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{7A6F59F2-8521-B642-AFB2-1D8F3F36A9C9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2009-2010.xlsx
+++ b/metadata/STR-NHANES-2009-2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B284698-2588-8147-B77F-0062F7E11893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD1E3E-6D08-9540-ADD0-7D772BBC55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1120" yWindow="-19300" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="4500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>NHANES-2009-2010-UCPREG_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-BPQ_F</t>
+  </si>
+  <si>
+    <t>NHANES-BPQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BPQ_F-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1586,15 +1595,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="8" t="s">
@@ -1604,15 +1613,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="8" t="s">
@@ -1622,15 +1631,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>42</v>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="8" t="s">
@@ -1642,13 +1651,13 @@
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="8" t="s">
@@ -1660,13 +1669,13 @@
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8" t="s">
@@ -1678,13 +1687,13 @@
     </row>
     <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="8" t="s">
@@ -1696,13 +1705,13 @@
     </row>
     <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="8" t="s">
@@ -1712,15 +1721,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
@@ -1730,16 +1739,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{4CBF1F59-E6CF-9C4E-ADAE-AD0B7423F61E}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{BF77E96A-B180-544F-B6CA-EC7D35AAA94E}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{6C1BE012-E1CA-3E4C-90FE-B5266FB935A7}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{370FD019-0A04-0541-9F59-68E6B453D765}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{8FA29C4B-5D62-C241-B5A9-3548E5889E53}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{2764579B-87E0-6E49-8E4D-86FCABC15967}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{F94762BC-A13D-FF42-A2B5-42F93E20FADB}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{7A6F59F2-8521-B642-AFB2-1D8F3F36A9C9}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{4CBF1F59-E6CF-9C4E-ADAE-AD0B7423F61E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{BF77E96A-B180-544F-B6CA-EC7D35AAA94E}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{6C1BE012-E1CA-3E4C-90FE-B5266FB935A7}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{370FD019-0A04-0541-9F59-68E6B453D765}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{8FA29C4B-5D62-C241-B5A9-3548E5889E53}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{2764579B-87E0-6E49-8E4D-86FCABC15967}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{F94762BC-A13D-FF42-A2B5-42F93E20FADB}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{7A6F59F2-8521-B642-AFB2-1D8F3F36A9C9}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{46C17415-00FA-4340-BF03-D6E8D384186E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2009-2010.xlsx
+++ b/metadata/STR-NHANES-2009-2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD1E3E-6D08-9540-ADD0-7D772BBC55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0424CA79-1AB3-9946-BDE0-3524F4210620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="4500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -184,13 +184,31 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-BPQ_F-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-BPX</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-INFANTOMETER-STADIOMETER</t>
+  </si>
+  <si>
+    <t>NHANES-BMX</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-STEEL-MEASURING-TAPE</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-BPX_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-BMX_F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -215,8 +233,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +253,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -253,29 +283,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1467,7 +1550,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="3"/>
@@ -1558,21 +1641,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1595,165 +1678,201 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1768,6 +1887,8 @@
     <hyperlink ref="E9" r:id="rId7" xr:uid="{F94762BC-A13D-FF42-A2B5-42F93E20FADB}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{7A6F59F2-8521-B642-AFB2-1D8F3F36A9C9}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{46C17415-00FA-4340-BF03-D6E8D384186E}"/>
+    <hyperlink ref="E11" r:id="rId10" display="mailto:example@example.com" xr:uid="{62CADD92-3B52-084F-8CBA-49E786DC7A5B}"/>
+    <hyperlink ref="E12" r:id="rId11" display="mailto:example@example.com" xr:uid="{E9BC8E01-B9D1-A440-A3EF-95E05FEEDAFE}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
@@ -1786,9 +1907,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1925,9 +2046,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/STR-NHANES-2009-2010.xlsx
+++ b/metadata/STR-NHANES-2009-2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0424CA79-1AB3-9946-BDE0-3524F4210620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C128C112-91AF-4343-B279-E271F7A7119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>NHANES-2009-2010-BMX_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-BIOPRO_F</t>
   </si>
 </sst>
 </file>
@@ -1641,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1841,38 +1844,56 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1887,8 +1908,9 @@
     <hyperlink ref="E9" r:id="rId7" xr:uid="{F94762BC-A13D-FF42-A2B5-42F93E20FADB}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{7A6F59F2-8521-B642-AFB2-1D8F3F36A9C9}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{46C17415-00FA-4340-BF03-D6E8D384186E}"/>
-    <hyperlink ref="E11" r:id="rId10" display="mailto:example@example.com" xr:uid="{62CADD92-3B52-084F-8CBA-49E786DC7A5B}"/>
-    <hyperlink ref="E12" r:id="rId11" display="mailto:example@example.com" xr:uid="{E9BC8E01-B9D1-A440-A3EF-95E05FEEDAFE}"/>
+    <hyperlink ref="E12" r:id="rId10" display="mailto:example@example.com" xr:uid="{62CADD92-3B52-084F-8CBA-49E786DC7A5B}"/>
+    <hyperlink ref="E13" r:id="rId11" display="mailto:example@example.com" xr:uid="{E9BC8E01-B9D1-A440-A3EF-95E05FEEDAFE}"/>
+    <hyperlink ref="E11" r:id="rId12" xr:uid="{32225577-7AC0-5240-85E2-AAB23AEF3710}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2009-2010.xlsx
+++ b/metadata/STR-NHANES-2009-2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C128C112-91AF-4343-B279-E271F7A7119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202BB25-C9CC-6148-A037-269D547BD7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>NHANES-2009-2010-BIOPRO_F</t>
+  </si>
+  <si>
+    <t>NHANES-2009-2010-TRIGLY_F</t>
   </si>
 </sst>
 </file>
@@ -1644,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1862,38 +1865,56 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1908,9 +1929,10 @@
     <hyperlink ref="E9" r:id="rId7" xr:uid="{F94762BC-A13D-FF42-A2B5-42F93E20FADB}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{7A6F59F2-8521-B642-AFB2-1D8F3F36A9C9}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{46C17415-00FA-4340-BF03-D6E8D384186E}"/>
-    <hyperlink ref="E12" r:id="rId10" display="mailto:example@example.com" xr:uid="{62CADD92-3B52-084F-8CBA-49E786DC7A5B}"/>
-    <hyperlink ref="E13" r:id="rId11" display="mailto:example@example.com" xr:uid="{E9BC8E01-B9D1-A440-A3EF-95E05FEEDAFE}"/>
+    <hyperlink ref="E13" r:id="rId10" display="mailto:example@example.com" xr:uid="{62CADD92-3B52-084F-8CBA-49E786DC7A5B}"/>
+    <hyperlink ref="E14" r:id="rId11" display="mailto:example@example.com" xr:uid="{E9BC8E01-B9D1-A440-A3EF-95E05FEEDAFE}"/>
     <hyperlink ref="E11" r:id="rId12" xr:uid="{32225577-7AC0-5240-85E2-AAB23AEF3710}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{38AA575E-9D7F-D148-9A3F-9B7C42DAB3D5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
